--- a/Benchmark_tri/Benchmark_tri.xlsx
+++ b/Benchmark_tri/Benchmark_tri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,242 +467,362 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1.897800029837526e-05</v>
+        <v>1.390299996728572e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>2.797900015139021e-05</v>
+        <v>1.934700003403123e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>3.503200059640221e-05</v>
+        <v>0.0001612290000139183</v>
       </c>
       <c r="E2" t="n">
-        <v>1.008300023386255e-05</v>
+        <v>1.145999999607739e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>3.271199966548011e-05</v>
+        <v>2.77440000218121e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001159642000857275</v>
+        <v>1.639300000988442e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002491660015948582</v>
+        <v>1.895699995202449e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002536569991207216</v>
+        <v>2.286799997364142e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003697399988595862</v>
+        <v>1.083699999071541e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0003983730002801167</v>
+        <v>2.671499998996296e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006725379000272369</v>
+        <v>8.880199993654969e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006291360004979651</v>
+        <v>6.014499990669719e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005295110004226444</v>
+        <v>6.596399998670677e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002028172000791528</v>
+        <v>4.207899996799824e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005406020009104395</v>
+        <v>0.0001088650000156122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02750988099978713</v>
+        <v>0.0003731900000047972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00122571700012486</v>
+        <v>0.0001457560000517333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001838251999288332</v>
+        <v>0.0001320000000077926</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01827916699949128</v>
+        <v>0.0001247399999328991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003205577999324305</v>
+        <v>0.0001813940000374714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>750</v>
+        <v>75</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0869023590003053</v>
+        <v>0.0005361859999766239</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002682385998923564</v>
+        <v>0.0001694589999488016</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003320874999189982</v>
+        <v>0.0002998809999326113</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03242250400035118</v>
+        <v>0.0002198309999812409</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002916993000326329</v>
+        <v>0.00012309200008076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1333426569999574</v>
+        <v>0.001290152000024136</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001278382000236888</v>
+        <v>0.0002393020000681645</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001525584000773961</v>
+        <v>0.000276885000062066</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02803951600071741</v>
+        <v>0.0004565529999354112</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002080350999676739</v>
+        <v>0.0005484729999807314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="B8" t="n">
-        <v>0.515535534999799</v>
+        <v>0.006310919000043214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004500146998907439</v>
+        <v>0.0004343430000517401</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005479686000398942</v>
+        <v>0.000507050999999592</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1881338540006254</v>
+        <v>0.001738647000024685</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004025791999083594</v>
+        <v>0.0005054009999412301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="B9" t="n">
-        <v>2.026910112999758</v>
+        <v>0.02528602000006686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007907634999355651</v>
+        <v>0.001021749000074124</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00906709300033981</v>
+        <v>0.00133430000005319</v>
       </c>
       <c r="E9" t="n">
-        <v>0.603678265999406</v>
+        <v>0.007922061999920516</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00926172400068026</v>
+        <v>0.0008993610000516128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7500</v>
+        <v>750</v>
       </c>
       <c r="B10" t="n">
-        <v>4.744340064000426</v>
+        <v>0.04211207699995612</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03245095499914896</v>
+        <v>0.001008023000053981</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03014494499984721</v>
+        <v>0.001413958999933129</v>
       </c>
       <c r="E10" t="n">
-        <v>1.808040240999617</v>
+        <v>0.01229829999999765</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004330191000917694</v>
+        <v>0.0007549470000185465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B11" t="n">
-        <v>9.01182606400107</v>
+        <v>0.06915779899998142</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02398666599947319</v>
+        <v>0.001407588000006399</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02461441900049977</v>
+        <v>0.001518181999927037</v>
       </c>
       <c r="E11" t="n">
-        <v>2.678611447001458</v>
+        <v>0.02158934000010504</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01864744500016968</v>
+        <v>0.001357750000011038</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="B12" t="n">
-        <v>60.43696357299996</v>
+        <v>0.4473129279999739</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06586054000035801</v>
+        <v>0.003557021999995413</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08095856699947035</v>
+        <v>0.004237943000021005</v>
       </c>
       <c r="E12" t="n">
-        <v>20.58319935300096</v>
+        <v>0.1416764839999587</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04495603999930609</v>
+        <v>0.003092568999932155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.878555452000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.007359213999961867</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.009094674000039049</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5739738330000819</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.002751211000031617</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7500</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.113418754999998</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01885482300008334</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01601625000000695</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.345086230999982</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01005912100004025</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8.096812675000024</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01659187200004908</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02046866499995303</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.642854556999964</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.01180638400001044</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>25000</v>
+      </c>
+      <c r="B16" t="n">
+        <v>49.600653298</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0442883239998082</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.06164502499996161</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14.76552705699987</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.03093270799990933</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>50000</v>
       </c>
-      <c r="B13" t="n">
-        <v>206.2516400899985</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05754041000000143</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.06875690700144332</v>
-      </c>
-      <c r="E13" t="n">
-        <v>74.46361465799964</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.08010044999900856</v>
+      <c r="B17" t="n">
+        <v>194.3869508980001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1072869479999099</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1270870900000318</v>
+      </c>
+      <c r="E17" t="n">
+        <v>61.47383850200004</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.04155739299994821</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>75000</v>
+      </c>
+      <c r="B18" t="n">
+        <v>450.1133975720002</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1626628770000025</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.2131285159998697</v>
+      </c>
+      <c r="E18" t="n">
+        <v>133.83386466</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.068803755999852</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B19" t="n">
+        <v>958.2589879480001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2696676850000586</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3213162870001725</v>
+      </c>
+      <c r="E19" t="n">
+        <v>259.5555735190001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1423238169995784</v>
       </c>
     </row>
   </sheetData>
